--- a/Alex/список-XLSX Worksheet.xlsx
+++ b/Alex/список-XLSX Worksheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.v.serov\Desktop\Инвентаризация\Alex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="17">
   <si>
     <t>СБ</t>
   </si>
@@ -29,9 +34,6 @@
   </si>
   <si>
     <t>View Sonic VA 1926W</t>
-  </si>
-  <si>
-    <t>оставил</t>
   </si>
   <si>
     <t>Sinc Master 940N</t>
@@ -73,14 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,353 +84,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -442,310 +101,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1003,22 +376,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A5:E104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A5:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="4.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="21.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
@@ -1153,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1164,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1175,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1186,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1197,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1208,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1219,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1230,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1241,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1294,29 +668,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>1391999</v>
+        <v>1368618</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>1368618</v>
+        <v>1393790</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1327,24 +698,24 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>1393790</v>
+        <v>1392012</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>1392012</v>
+        <v>1391993</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1353,29 +724,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>1392002</v>
+        <v>1391621</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>1391993</v>
+        <v>1391988</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1386,38 +754,38 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>1391621</v>
+        <v>1392218</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1391988</v>
+        <v>1392229</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>1392218</v>
+        <v>1392238</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1428,10 +796,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>1392229</v>
+        <v>1392239</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1442,10 +810,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>1392238</v>
+        <v>1392228</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1456,74 +824,71 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>1392239</v>
+        <v>1364502</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>1392228</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
+        <v>1641892</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>1364502</v>
+        <v>1364232</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1641892</v>
-      </c>
-      <c r="D43" t="s">
+        <v>1364226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1398884</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>1364232</v>
-      </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>1364226</v>
+        <v>1391608</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -1531,182 +896,185 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>1398884</v>
+        <v>1392240</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>1391608</v>
+        <v>1392237</v>
       </c>
       <c r="C47" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>1392240</v>
+        <v>1391659</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>1392237</v>
+        <v>1391677</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>1391659</v>
+        <v>1391672</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>1391677</v>
+        <v>1391671</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>1391672</v>
+        <v>1391669</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>1391671</v>
+        <v>1391674</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>1391669</v>
+        <v>1391663</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>1391674</v>
+        <v>1391978</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>1391663</v>
+        <v>1364221</v>
       </c>
       <c r="C56" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>1391978</v>
+        <v>1364217</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>1364221</v>
+        <v>1392231</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>1364217</v>
+        <v>1392234</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>1392231</v>
+        <v>1392223</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1717,10 +1085,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>1392234</v>
+        <v>1392224</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -1731,10 +1099,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>1392223</v>
+        <v>1392242</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1745,52 +1113,46 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>1392224</v>
+        <v>1363729</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>1392242</v>
+        <v>1391628</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>1363729</v>
+        <v>1391583</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>1391628</v>
+        <v>1391611</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -1798,10 +1160,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>1391583</v>
+        <v>1391607</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1809,10 +1171,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>1391611</v>
+        <v>1391667</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1820,10 +1182,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>1391607</v>
+        <v>1391660</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1831,10 +1193,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>1391667</v>
+        <v>1391582</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -1842,10 +1204,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>1391660</v>
+        <v>1390198</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -1853,10 +1215,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>1391582</v>
+        <v>1391573</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -1864,10 +1226,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>1390198</v>
+        <v>1391621</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -1875,10 +1237,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>1391573</v>
+        <v>1391585</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1886,10 +1248,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>1391621</v>
+        <v>1391599</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -1897,10 +1259,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>1391585</v>
+        <v>1394445</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -1908,10 +1270,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>1391599</v>
+        <v>1391624</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -1919,10 +1281,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>1394445</v>
+        <v>1391622</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -1930,10 +1292,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>1391624</v>
+        <v>1391600</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -1941,57 +1303,63 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>1391622</v>
+        <v>1391627</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>1391600</v>
+        <v>1392324</v>
       </c>
       <c r="C81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
-        <v>78</v>
-      </c>
-      <c r="B82">
-        <v>1391627</v>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>1392324</v>
+        <v>1393790</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>80</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1392219</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2002,24 +1370,24 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>1393790</v>
+        <v>1392313</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>1392219</v>
+        <v>1392318</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2030,10 +1398,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>1392313</v>
+        <v>1392325</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -2044,80 +1412,80 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>1392318</v>
+        <v>1364404</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>1392325</v>
+        <v>1369703</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>1364404</v>
+        <v>1369700</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>1369703</v>
+        <v>1391990</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>1369700</v>
+        <v>1392003</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>1391990</v>
+        <v>1392004</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2128,10 +1496,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>1392003</v>
+        <v>1391984</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -2142,63 +1510,63 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>1392004</v>
+        <v>1392309</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>1391984</v>
+        <v>1392324</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>93</v>
-      </c>
-      <c r="B97">
-        <v>1392309</v>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>1392324</v>
+        <v>1392872</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -2207,72 +1575,43 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>1392872</v>
+        <v>1391982</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>98</v>
-      </c>
-      <c r="B102">
-        <v>1391982</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>